--- a/ope.ed.gov/2011/arrests-noncampus-virginia-colleges-and-universities-crime-2011.xlsx
+++ b/ope.ed.gov/2011/arrests-noncampus-virginia-colleges-and-universities-crime-2011.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Arrests_Noncampus" state="visible" r:id="rId3"/>
+    <sheet sheetId="1" name="arrests-noncampus-virginia-coll" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Arrests - Noncampus</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,13 +31,13 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Illegal weapons possession</t>
-  </si>
-  <si>
-    <t>Drug law violations</t>
-  </si>
-  <si>
-    <t>Liquor law violations</t>
+    <t>Illegal Weapons Possession</t>
+  </si>
+  <si>
+    <t>Drug Law Violations</t>
+  </si>
+  <si>
+    <t>Liquor Law Violations</t>
   </si>
   <si>
     <t>Argosy University-Washington DC</t>
@@ -535,34 +532,58 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2011.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>419457.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c s="1" r="F2">
+        <v>1142.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -570,19 +591,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B3">
-        <v>419457.0</v>
+        <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c s="1" r="D3">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c s="1" r="F3">
-        <v>1142.0</v>
+        <v>1667.0</v>
       </c>
       <c s="1" r="G3">
         <v>0.0</v>
@@ -602,13 +623,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c s="1" r="D4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c s="1" r="F4">
         <v>1667.0</v>
@@ -631,13 +652,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c s="1" r="D5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c s="1" r="F5">
         <v>1667.0</v>
@@ -660,13 +681,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D6">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F6">
         <v>1667.0</v>
@@ -686,19 +707,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B7">
-        <v>449931.0</v>
+        <v>448257.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D7">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F7">
-        <v>1667.0</v>
+        <v>18.0</v>
       </c>
       <c s="1" r="G7">
         <v>0.0</v>
@@ -715,19 +736,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B8">
-        <v>448257.0</v>
+        <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D8">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F8">
-        <v>18.0</v>
+        <v>4836.0</v>
       </c>
       <c s="1" r="G8">
         <v>0.0</v>
@@ -744,19 +765,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B9">
-        <v>231536.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D9">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F9">
-        <v>4836.0</v>
+        <v>763.0</v>
       </c>
       <c s="1" r="G9">
         <v>0.0</v>
@@ -773,19 +794,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B10">
-        <v>231554.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D10">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F10">
-        <v>763.0</v>
+        <v>1648.0</v>
       </c>
       <c s="1" r="G10">
         <v>0.0</v>
@@ -802,19 +823,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B11">
-        <v>231581.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D11">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F11">
-        <v>1648.0</v>
+        <v>4990.0</v>
       </c>
       <c s="1" r="G11">
         <v>0.0</v>
@@ -831,19 +852,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B12">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D12">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F12">
-        <v>4990.0</v>
+        <v>8200.0</v>
       </c>
       <c s="1" r="G12">
         <v>0.0</v>
@@ -863,13 +884,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D13">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F13">
         <v>8200.0</v>
@@ -892,13 +913,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D14">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F14">
         <v>8200.0</v>
@@ -918,19 +939,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B15">
-        <v>231624.0</v>
+        <v>231882.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D15">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F15">
-        <v>8200.0</v>
+        <v>4390.0</v>
       </c>
       <c s="1" r="G15">
         <v>0.0</v>
@@ -947,19 +968,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B16">
-        <v>231882.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D16">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F16">
-        <v>4390.0</v>
+        <v>1521.0</v>
       </c>
       <c s="1" r="G16">
         <v>0.0</v>
@@ -976,19 +997,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B17">
-        <v>232043.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D17">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F17">
-        <v>1521.0</v>
+        <v>1008.0</v>
       </c>
       <c s="1" r="G17">
         <v>0.0</v>
@@ -1005,19 +1026,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B18">
-        <v>231970.0</v>
+        <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D18">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F18">
-        <v>1008.0</v>
+        <v>964.0</v>
       </c>
       <c s="1" r="G18">
         <v>0.0</v>
@@ -1034,19 +1055,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B19">
-        <v>442806.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D19">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F19">
-        <v>964.0</v>
+        <v>982.0</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -1063,25 +1084,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B20">
-        <v>232025.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D20">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F20">
-        <v>982.0</v>
+        <v>1512.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
       </c>
       <c s="1" r="H20">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="I20">
         <v>0.0</v>
@@ -1092,25 +1113,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B21">
-        <v>232089.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D21">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F21">
-        <v>1512.0</v>
+        <v>33320.0</v>
       </c>
       <c s="1" r="G21">
         <v>0.0</v>
       </c>
       <c s="1" r="H21">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I21">
         <v>0.0</v>
@@ -1121,19 +1142,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B22">
-        <v>232186.0</v>
+        <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F22">
-        <v>33320.0</v>
+        <v>7779.0</v>
       </c>
       <c s="1" r="G22">
         <v>0.0</v>
@@ -1150,19 +1171,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B23">
-        <v>232195.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D23">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F23">
-        <v>7779.0</v>
+        <v>1057.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -1179,28 +1200,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B24">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F24">
-        <v>1057.0</v>
+        <v>5221.0</v>
       </c>
       <c s="1" r="G24">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H24">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="I24">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
@@ -1208,28 +1229,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B25">
-        <v>232265.0</v>
+        <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D25">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F25">
-        <v>5221.0</v>
+        <v>13367.0</v>
       </c>
       <c s="1" r="G25">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H25">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I25">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
@@ -1237,28 +1258,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B26">
-        <v>232414.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D26">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F26">
-        <v>13367.0</v>
+        <v>19722.0</v>
       </c>
       <c s="1" r="G26">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="H26">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="I26">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="27">
@@ -1266,28 +1287,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B27">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F27">
-        <v>19722.0</v>
+        <v>1065.0</v>
       </c>
       <c s="1" r="G27">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H27">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I27">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -1295,28 +1316,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B28">
-        <v>231837.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F28">
-        <v>1065.0</v>
+        <v>64096.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
       </c>
       <c s="1" r="H28">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I28">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
@@ -1324,28 +1345,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B29">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="1" r="F29">
-        <v>64096.0</v>
+        <v>4860.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
       </c>
       <c s="1" r="H29">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I29">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -1353,19 +1374,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B30">
-        <v>232566.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F30">
-        <v>4860.0</v>
+        <v>2828.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -1382,19 +1403,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B31">
-        <v>232609.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F31">
-        <v>2828.0</v>
+        <v>3633.0</v>
       </c>
       <c s="1" r="G31">
         <v>0.0</v>
@@ -1411,19 +1432,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B32">
-        <v>232706.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D32">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F32">
-        <v>3633.0</v>
+        <v>3219.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
@@ -1440,19 +1461,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B33">
-        <v>232788.0</v>
+        <v>232867.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D33">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F33">
-        <v>3219.0</v>
+        <v>5207.0</v>
       </c>
       <c s="1" r="G33">
         <v>0.0</v>
@@ -1469,25 +1490,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B34">
-        <v>232867.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F34">
-        <v>5207.0</v>
+        <v>7091.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
       </c>
       <c s="1" r="H34">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I34">
         <v>0.0</v>
@@ -1498,25 +1519,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B35">
-        <v>232937.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F35">
-        <v>7091.0</v>
+        <v>50044.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
       </c>
       <c s="1" r="H35">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="I35">
         <v>0.0</v>
@@ -1530,13 +1551,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D36">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F36">
         <v>50044.0</v>
@@ -1545,7 +1566,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H36">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I36">
         <v>0.0</v>
@@ -1559,13 +1580,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D37">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F37">
         <v>50044.0</v>
@@ -1588,13 +1609,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D38">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F38">
         <v>50044.0</v>
@@ -1603,7 +1624,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H38">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="I38">
         <v>0.0</v>
@@ -1617,13 +1638,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D39">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F39">
         <v>50044.0</v>
@@ -1632,7 +1653,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H39">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I39">
         <v>0.0</v>
@@ -1646,13 +1667,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D40">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F40">
         <v>50044.0</v>
@@ -1672,19 +1693,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B41">
-        <v>232946.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D41">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F41">
-        <v>50044.0</v>
+        <v>24753.0</v>
       </c>
       <c s="1" r="G41">
         <v>0.0</v>
@@ -1701,19 +1722,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B42">
-        <v>232982.0</v>
+        <v>233019.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D42">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F42">
-        <v>24753.0</v>
+        <v>3251.0</v>
       </c>
       <c s="1" r="G42">
         <v>0.0</v>
@@ -1730,28 +1751,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B43">
-        <v>233019.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D43">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F43">
-        <v>3251.0</v>
+        <v>9370.0</v>
       </c>
       <c s="1" r="G43">
         <v>0.0</v>
       </c>
       <c s="1" r="H43">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I43">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="44">
@@ -1759,28 +1780,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B44">
-        <v>233277.0</v>
+        <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D44">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F44">
-        <v>9370.0</v>
+        <v>3734.0</v>
       </c>
       <c s="1" r="G44">
         <v>0.0</v>
       </c>
       <c s="1" r="H44">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I44">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
@@ -1791,13 +1812,13 @@
         <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D45">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F45">
         <v>3734.0</v>
@@ -1817,28 +1838,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B46">
-        <v>233310.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D46">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F46">
-        <v>3734.0</v>
+        <v>4052.0</v>
       </c>
       <c s="1" r="G46">
         <v>0.0</v>
       </c>
       <c s="1" r="H46">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="I46">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="47">
@@ -1846,28 +1867,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B47">
-        <v>233541.0</v>
+        <v>459259.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D47">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F47">
-        <v>4052.0</v>
+        <v>559.0</v>
       </c>
       <c s="1" r="G47">
         <v>0.0</v>
       </c>
       <c s="1" r="H47">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I47">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
@@ -1875,19 +1896,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B48">
-        <v>459259.0</v>
+        <v>459268.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D48">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F48">
-        <v>559.0</v>
+        <v>437.0</v>
       </c>
       <c s="1" r="G48">
         <v>0.0</v>
@@ -1904,19 +1925,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B49">
-        <v>459268.0</v>
+        <v>451608.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D49">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F49">
-        <v>437.0</v>
+        <v>71.0</v>
       </c>
       <c s="1" r="G49">
         <v>0.0</v>
@@ -1933,19 +1954,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B50">
-        <v>451608.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D50">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F50">
-        <v>71.0</v>
+        <v>6461.0</v>
       </c>
       <c s="1" r="G50">
         <v>0.0</v>
@@ -1962,19 +1983,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B51">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D51">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F51">
-        <v>6461.0</v>
+        <v>3233.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
@@ -1991,19 +2012,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B52">
-        <v>233648.0</v>
+        <v>458496.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F52">
-        <v>3233.0</v>
+        <v>427.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -2020,19 +2041,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B53">
-        <v>458496.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D53">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F53">
-        <v>427.0</v>
+        <v>2094.0</v>
       </c>
       <c s="1" r="G53">
         <v>0.0</v>
@@ -2049,19 +2070,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B54">
-        <v>440341.0</v>
+        <v>456010.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D54">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F54">
-        <v>2094.0</v>
+        <v>245.0</v>
       </c>
       <c s="1" r="G54">
         <v>0.0</v>
@@ -2078,19 +2099,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B55">
-        <v>456010.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D55">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F55">
-        <v>245.0</v>
+        <v>2067.0</v>
       </c>
       <c s="1" r="G55">
         <v>0.0</v>
@@ -2107,19 +2128,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B56">
-        <v>233897.0</v>
+        <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D56">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F56">
-        <v>2067.0</v>
+        <v>32101.0</v>
       </c>
       <c s="1" r="G56">
         <v>0.0</v>
@@ -2139,13 +2160,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D57">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F57">
         <v>32101.0</v>
@@ -2165,19 +2186,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B58">
-        <v>233772.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C58">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D58">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E58">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F58">
-        <v>32101.0</v>
+        <v>5170.0</v>
       </c>
       <c s="1" r="G58">
         <v>0.0</v>
@@ -2194,19 +2215,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B59">
-        <v>232681.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C59">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D59">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E59">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c s="1" r="F59">
-        <v>5170.0</v>
+        <v>4348.0</v>
       </c>
       <c s="1" r="G59">
         <v>0.0</v>
@@ -2223,19 +2244,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B60">
-        <v>233374.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C60">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c s="1" r="D60">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E60">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c s="1" r="F60">
-        <v>4348.0</v>
+        <v>24297.0</v>
       </c>
       <c s="1" r="G60">
         <v>0.0</v>
@@ -2244,7 +2265,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I60">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="61">
@@ -2252,28 +2273,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B61">
-        <v>234076.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C61">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c s="1" r="D61">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E61">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c s="1" r="F61">
-        <v>24297.0</v>
+        <v>31627.0</v>
       </c>
       <c s="1" r="G61">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="H61">
         <v>0.0</v>
       </c>
       <c s="1" r="I61">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="62">
@@ -2284,19 +2305,19 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C62">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="1" r="D62">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E62">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c s="1" r="F62">
         <v>31627.0</v>
       </c>
       <c s="1" r="G62">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H62">
         <v>0.0</v>
@@ -2310,19 +2331,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B63">
-        <v>234030.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C63">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c s="1" r="D63">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E63">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c s="1" r="F63">
-        <v>31627.0</v>
+        <v>558.0</v>
       </c>
       <c s="1" r="G63">
         <v>0.0</v>
@@ -2339,19 +2360,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B64">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C64">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c s="1" r="D64">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E64">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c s="1" r="F64">
-        <v>558.0</v>
+        <v>1605.0</v>
       </c>
       <c s="1" r="G64">
         <v>0.0</v>
@@ -2368,28 +2389,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B65">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C65">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c s="1" r="D65">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E65">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c s="1" r="F65">
-        <v>1605.0</v>
+        <v>30936.0</v>
       </c>
       <c s="1" r="G65">
         <v>0.0</v>
       </c>
       <c s="1" r="H65">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I65">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="66">
@@ -2397,28 +2418,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B66">
-        <v>233921.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C66">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c s="1" r="D66">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E66">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c s="1" r="F66">
-        <v>30936.0</v>
+        <v>5890.0</v>
       </c>
       <c s="1" r="G66">
         <v>0.0</v>
       </c>
       <c s="1" r="H66">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="I66">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
@@ -2426,25 +2447,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B67">
-        <v>234155.0</v>
+        <v>234164.0</v>
       </c>
       <c t="s" s="1" r="C67">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c s="1" r="D67">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E67">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c s="1" r="F67">
-        <v>5890.0</v>
+        <v>1678.0</v>
       </c>
       <c s="1" r="G67">
         <v>0.0</v>
       </c>
       <c s="1" r="H67">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I67">
         <v>0.0</v>
@@ -2455,25 +2476,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B68">
-        <v>234164.0</v>
+        <v>234137.0</v>
       </c>
       <c t="s" s="1" r="C68">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c s="1" r="D68">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E68">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c s="1" r="F68">
-        <v>1678.0</v>
+        <v>597.0</v>
       </c>
       <c s="1" r="G68">
         <v>0.0</v>
       </c>
       <c s="1" r="H68">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="I68">
         <v>0.0</v>
@@ -2484,25 +2505,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B69">
-        <v>234137.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C69">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c s="1" r="D69">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E69">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c s="1" r="F69">
-        <v>597.0</v>
+        <v>8557.0</v>
       </c>
       <c s="1" r="G69">
         <v>0.0</v>
       </c>
       <c s="1" r="H69">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I69">
         <v>0.0</v>
@@ -2513,19 +2534,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B70">
-        <v>233949.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C70">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c s="1" r="D70">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E70">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c s="1" r="F70">
-        <v>8557.0</v>
+        <v>2193.0</v>
       </c>
       <c s="1" r="G70">
         <v>0.0</v>
@@ -2542,19 +2563,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B71">
-        <v>234207.0</v>
+        <v>234225.0</v>
       </c>
       <c t="s" s="1" r="C71">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c s="1" r="D71">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E71">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c s="1" r="F71">
-        <v>2193.0</v>
+        <v>88.0</v>
       </c>
       <c s="1" r="G71">
         <v>0.0</v>
@@ -2571,19 +2592,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B72">
-        <v>234225.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C72">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c s="1" r="D72">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E72">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="1" r="F72">
-        <v>88.0</v>
+        <v>3792.0</v>
       </c>
       <c s="1" r="G72">
         <v>0.0</v>
@@ -2592,35 +2613,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I72">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c s="1" r="A73">
-        <v>2011.0</v>
-      </c>
-      <c s="1" r="B73">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C73">
-        <v>150</v>
-      </c>
-      <c s="1" r="D73">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E73">
-        <v>151</v>
-      </c>
-      <c s="1" r="F73">
-        <v>3792.0</v>
-      </c>
-      <c s="1" r="G73">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H73">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I73">
         <v>0.0</v>
       </c>
     </row>
